--- a/tools/test1.xlsx
+++ b/tools/test1.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB4EAF-FAEA-4324-A2D6-0B055229B502}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_1" sheetId="1" r:id="rId1"/>
     <sheet name="_Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Map" sheetId="4" r:id="rId3"/>
+    <sheet name="Level" sheetId="4" r:id="rId3"/>
     <sheet name="Item" sheetId="3" r:id="rId4"/>
-    <sheet name="Level" sheetId="5" r:id="rId5"/>
-    <sheet name="Npc" sheetId="6" r:id="rId6"/>
-    <sheet name="Hero" sheetId="7" r:id="rId7"/>
+    <sheet name="Npc" sheetId="6" r:id="rId5"/>
+    <sheet name="Hero" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="119">
   <si>
     <t>服务器方案对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,13 +525,17 @@
   </si>
   <si>
     <t>1|999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,7 +610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -681,6 +685,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -716,6 +737,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -891,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K57"/>
   <sheetViews>
@@ -899,24 +937,24 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -948,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -983,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1069,7 +1107,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1120,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1133,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1108,7 +1146,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1121,7 +1159,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +1172,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1145,7 +1183,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1161,7 +1199,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1174,7 +1212,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1187,7 +1225,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1198,7 +1236,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1214,7 +1252,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1227,7 +1265,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1240,7 +1278,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1251,7 +1289,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1262,7 +1300,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1273,7 +1311,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1287,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1301,7 +1339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1315,12 +1353,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1334,7 +1372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -1348,7 +1386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -1362,7 +1400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1376,7 +1414,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1390,7 +1428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1404,7 +1442,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1418,7 +1456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>53</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -1440,7 +1478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -1454,7 +1492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1506,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -1479,7 +1517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1493,7 +1531,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1507,7 +1545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1521,7 +1559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1535,7 +1573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1549,7 +1587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1563,7 +1601,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -1579,12 +1617,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
@@ -1596,6 +1628,12 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1605,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -1613,20 +1651,20 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1640,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1654,7 +1692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1668,7 +1706,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1682,7 +1720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1696,7 +1734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -1710,7 +1748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1724,7 +1762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1738,7 +1776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1752,7 +1790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1766,7 +1804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1774,7 +1812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1788,7 +1826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1802,7 +1840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1854,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1827,7 +1865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1841,7 +1879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -1855,7 +1893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1869,7 +1907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1883,7 +1921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1897,7 +1935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1911,7 +1949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1933,21 +1971,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>99</v>
@@ -1968,7 +2006,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1997,7 +2035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -2026,7 +2064,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2063,26 +2101,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I4"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="29.625" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -2108,7 +2146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -2137,7 +2175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -2166,7 +2204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2203,12 +2241,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,27 +2254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
